--- a/natmiOut/OldD4/LR-pairs_lrc2p/Efna1-Epha3.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Efna1-Epha3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Epha3</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +528,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.4392708317941</v>
+        <v>20.447252</v>
       </c>
       <c r="H2">
-        <v>19.4392708317941</v>
+        <v>61.341756</v>
       </c>
       <c r="I2">
-        <v>0.8696654107847175</v>
+        <v>0.8699145605694745</v>
       </c>
       <c r="J2">
-        <v>0.8696654107847175</v>
+        <v>0.8770588936480435</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>27.5280706978521</v>
+        <v>0.030493</v>
       </c>
       <c r="N2">
-        <v>27.5280706978521</v>
+        <v>0.091479</v>
       </c>
       <c r="O2">
-        <v>0.9924148126284865</v>
+        <v>0.001018637778668347</v>
       </c>
       <c r="P2">
-        <v>0.9924148126284865</v>
+        <v>0.001021037349570579</v>
       </c>
       <c r="Q2">
-        <v>535.1256217723222</v>
+        <v>0.623498055236</v>
       </c>
       <c r="R2">
-        <v>535.1256217723222</v>
+        <v>5.611482497124</v>
       </c>
       <c r="S2">
-        <v>0.8630688356933912</v>
+        <v>0.0008861278356097409</v>
       </c>
       <c r="T2">
-        <v>0.8630688356933912</v>
+        <v>0.0008955098881877029</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +590,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.4392708317941</v>
+        <v>20.447252</v>
       </c>
       <c r="H3">
-        <v>19.4392708317941</v>
+        <v>61.341756</v>
       </c>
       <c r="I3">
-        <v>0.8696654107847175</v>
+        <v>0.8699145605694745</v>
       </c>
       <c r="J3">
-        <v>0.8696654107847175</v>
+        <v>0.8770588936480435</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.21040150908917</v>
+        <v>29.65321533333333</v>
       </c>
       <c r="N3">
-        <v>0.21040150908917</v>
+        <v>88.95964599999999</v>
       </c>
       <c r="O3">
-        <v>0.007585187371513531</v>
+        <v>0.990584245483253</v>
       </c>
       <c r="P3">
-        <v>0.007585187371513531</v>
+        <v>0.9929177316168408</v>
       </c>
       <c r="Q3">
-        <v>4.090051918602564</v>
+        <v>606.3267665309306</v>
       </c>
       <c r="R3">
-        <v>4.090051918602564</v>
+        <v>5456.940898778375</v>
       </c>
       <c r="S3">
-        <v>0.006596575091326366</v>
+        <v>0.8617236586166084</v>
       </c>
       <c r="T3">
-        <v>0.006596575091326366</v>
+        <v>0.8708473271753914</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,60 +652,60 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.35469334796926</v>
+        <v>20.447252</v>
       </c>
       <c r="H4">
-        <v>2.35469334796926</v>
+        <v>61.341756</v>
       </c>
       <c r="I4">
-        <v>0.105343218655323</v>
+        <v>0.8699145605694745</v>
       </c>
       <c r="J4">
-        <v>0.105343218655323</v>
+        <v>0.8770588936480435</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>27.5280706978521</v>
+        <v>0.04031433333333333</v>
       </c>
       <c r="N4">
-        <v>27.5280706978521</v>
+        <v>0.120943</v>
       </c>
       <c r="O4">
-        <v>0.9924148126284865</v>
+        <v>0.001346725574891351</v>
       </c>
       <c r="P4">
-        <v>0.9924148126284865</v>
+        <v>0.001349898011227873</v>
       </c>
       <c r="Q4">
-        <v>64.82016495465986</v>
+        <v>0.8243173328786666</v>
       </c>
       <c r="R4">
-        <v>64.82016495465986</v>
+        <v>7.418855995907999</v>
       </c>
       <c r="S4">
-        <v>0.1045441706035041</v>
+        <v>0.001171536186689282</v>
       </c>
       <c r="T4">
-        <v>0.1045441706035041</v>
+        <v>0.001183940056265212</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -714,57 +717,57 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.35469334796926</v>
+        <v>20.447252</v>
       </c>
       <c r="H5">
-        <v>2.35469334796926</v>
+        <v>61.341756</v>
       </c>
       <c r="I5">
-        <v>0.105343218655323</v>
+        <v>0.8699145605694745</v>
       </c>
       <c r="J5">
-        <v>0.105343218655323</v>
+        <v>0.8770588936480435</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.21040150908917</v>
+        <v>0.211054</v>
       </c>
       <c r="N5">
-        <v>0.21040150908917</v>
+        <v>0.422108</v>
       </c>
       <c r="O5">
-        <v>0.007585187371513531</v>
+        <v>0.007050391163187267</v>
       </c>
       <c r="P5">
-        <v>0.007585187371513531</v>
+        <v>0.00471133302236074</v>
       </c>
       <c r="Q5">
-        <v>0.4954310338549624</v>
+        <v>4.315474323608</v>
       </c>
       <c r="R5">
-        <v>0.4954310338549624</v>
+        <v>25.892845941648</v>
       </c>
       <c r="S5">
-        <v>0.0007990480518189445</v>
+        <v>0.006133237930566957</v>
       </c>
       <c r="T5">
-        <v>0.0007990480518189445</v>
+        <v>0.004132116528199203</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -773,60 +776,60 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.558621758147675</v>
+        <v>2.483247333333333</v>
       </c>
       <c r="H6">
-        <v>0.558621758147675</v>
+        <v>7.449742</v>
       </c>
       <c r="I6">
-        <v>0.02499137055995952</v>
+        <v>0.105648084777455</v>
       </c>
       <c r="J6">
-        <v>0.02499137055995952</v>
+        <v>0.1065157390747562</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>27.5280706978521</v>
+        <v>0.030493</v>
       </c>
       <c r="N6">
-        <v>27.5280706978521</v>
+        <v>0.091479</v>
       </c>
       <c r="O6">
-        <v>0.9924148126284865</v>
+        <v>0.001018637778668347</v>
       </c>
       <c r="P6">
-        <v>0.9924148126284865</v>
+        <v>0.001021037349570579</v>
       </c>
       <c r="Q6">
-        <v>15.37777925164764</v>
+        <v>0.07572166093533333</v>
       </c>
       <c r="R6">
-        <v>15.37777925164764</v>
+        <v>0.681494948418</v>
       </c>
       <c r="S6">
-        <v>0.0248018063315913</v>
+        <v>0.000107617130398272</v>
       </c>
       <c r="T6">
-        <v>0.0248018063315913</v>
+        <v>0.0001087565479124405</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -835,55 +838,427 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2.483247333333333</v>
+      </c>
+      <c r="H7">
+        <v>7.449742</v>
+      </c>
+      <c r="I7">
+        <v>0.105648084777455</v>
+      </c>
+      <c r="J7">
+        <v>0.1065157390747562</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>29.65321533333333</v>
+      </c>
+      <c r="N7">
+        <v>88.95964599999999</v>
+      </c>
+      <c r="O7">
+        <v>0.990584245483253</v>
+      </c>
+      <c r="P7">
+        <v>0.9929177316168408</v>
+      </c>
+      <c r="Q7">
+        <v>73.6362679012591</v>
+      </c>
+      <c r="R7">
+        <v>662.7264111113319</v>
+      </c>
+      <c r="S7">
+        <v>0.104653328346026</v>
+      </c>
+      <c r="T7">
+        <v>0.1057613660235983</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2.483247333333333</v>
+      </c>
+      <c r="H8">
+        <v>7.449742</v>
+      </c>
+      <c r="I8">
+        <v>0.105648084777455</v>
+      </c>
+      <c r="J8">
+        <v>0.1065157390747562</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.04031433333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.120943</v>
+      </c>
+      <c r="O8">
+        <v>0.001346725574891351</v>
+      </c>
+      <c r="P8">
+        <v>0.001349898011227873</v>
+      </c>
+      <c r="Q8">
+        <v>0.1001104607451111</v>
+      </c>
+      <c r="R8">
+        <v>0.9009941467059999</v>
+      </c>
+      <c r="S8">
+        <v>0.0001422789777080883</v>
+      </c>
+      <c r="T8">
+        <v>0.0001437853843414805</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.558621758147675</v>
-      </c>
-      <c r="H7">
-        <v>0.558621758147675</v>
-      </c>
-      <c r="I7">
-        <v>0.02499137055995952</v>
-      </c>
-      <c r="J7">
-        <v>0.02499137055995952</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.21040150908917</v>
-      </c>
-      <c r="N7">
-        <v>0.21040150908917</v>
-      </c>
-      <c r="O7">
-        <v>0.007585187371513531</v>
-      </c>
-      <c r="P7">
-        <v>0.007585187371513531</v>
-      </c>
-      <c r="Q7">
-        <v>0.1175348609243162</v>
-      </c>
-      <c r="R7">
-        <v>0.1175348609243162</v>
-      </c>
-      <c r="S7">
-        <v>0.00018956422836822</v>
-      </c>
-      <c r="T7">
-        <v>0.00018956422836822</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2.483247333333333</v>
+      </c>
+      <c r="H9">
+        <v>7.449742</v>
+      </c>
+      <c r="I9">
+        <v>0.105648084777455</v>
+      </c>
+      <c r="J9">
+        <v>0.1065157390747562</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.211054</v>
+      </c>
+      <c r="N9">
+        <v>0.422108</v>
+      </c>
+      <c r="O9">
+        <v>0.007050391163187267</v>
+      </c>
+      <c r="P9">
+        <v>0.00471133302236074</v>
+      </c>
+      <c r="Q9">
+        <v>0.5240992826893334</v>
+      </c>
+      <c r="R9">
+        <v>3.144595696136</v>
+      </c>
+      <c r="S9">
+        <v>0.0007448603233226279</v>
+      </c>
+      <c r="T9">
+        <v>0.0005018311189040592</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.5743975</v>
+      </c>
+      <c r="H10">
+        <v>1.148795</v>
+      </c>
+      <c r="I10">
+        <v>0.02443735465307048</v>
+      </c>
+      <c r="J10">
+        <v>0.01642536727720028</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.030493</v>
+      </c>
+      <c r="N10">
+        <v>0.091479</v>
+      </c>
+      <c r="O10">
+        <v>0.001018637778668347</v>
+      </c>
+      <c r="P10">
+        <v>0.001021037349570579</v>
+      </c>
+      <c r="Q10">
+        <v>0.0175151029675</v>
+      </c>
+      <c r="R10">
+        <v>0.105090617805</v>
+      </c>
+      <c r="S10">
+        <v>2.489281266033432E-05</v>
+      </c>
+      <c r="T10">
+        <v>1.67709134704359E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.5743975</v>
+      </c>
+      <c r="H11">
+        <v>1.148795</v>
+      </c>
+      <c r="I11">
+        <v>0.02443735465307048</v>
+      </c>
+      <c r="J11">
+        <v>0.01642536727720028</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>29.65321533333333</v>
+      </c>
+      <c r="N11">
+        <v>88.95964599999999</v>
+      </c>
+      <c r="O11">
+        <v>0.990584245483253</v>
+      </c>
+      <c r="P11">
+        <v>0.9929177316168408</v>
+      </c>
+      <c r="Q11">
+        <v>17.03273275442833</v>
+      </c>
+      <c r="R11">
+        <v>102.19639652657</v>
+      </c>
+      <c r="S11">
+        <v>0.02420725852061849</v>
+      </c>
+      <c r="T11">
+        <v>0.01630903841785119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.5743975</v>
+      </c>
+      <c r="H12">
+        <v>1.148795</v>
+      </c>
+      <c r="I12">
+        <v>0.02443735465307048</v>
+      </c>
+      <c r="J12">
+        <v>0.01642536727720028</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.04031433333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.120943</v>
+      </c>
+      <c r="O12">
+        <v>0.001346725574891351</v>
+      </c>
+      <c r="P12">
+        <v>0.001349898011227873</v>
+      </c>
+      <c r="Q12">
+        <v>0.02315645228083333</v>
+      </c>
+      <c r="R12">
+        <v>0.138938713685</v>
+      </c>
+      <c r="S12">
+        <v>3.291041049398018E-05</v>
+      </c>
+      <c r="T12">
+        <v>2.217257062118004E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.5743975</v>
+      </c>
+      <c r="H13">
+        <v>1.148795</v>
+      </c>
+      <c r="I13">
+        <v>0.02443735465307048</v>
+      </c>
+      <c r="J13">
+        <v>0.01642536727720028</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.211054</v>
+      </c>
+      <c r="N13">
+        <v>0.422108</v>
+      </c>
+      <c r="O13">
+        <v>0.007050391163187267</v>
+      </c>
+      <c r="P13">
+        <v>0.00471133302236074</v>
+      </c>
+      <c r="Q13">
+        <v>0.121228889965</v>
+      </c>
+      <c r="R13">
+        <v>0.4849155598600001</v>
+      </c>
+      <c r="S13">
+        <v>0.0001722929092976814</v>
+      </c>
+      <c r="T13">
+        <v>7.738537525747721E-05</v>
       </c>
     </row>
   </sheetData>
